--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value42.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value42.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6013458676278954</v>
+        <v>1.834565043449402</v>
       </c>
       <c r="B1">
-        <v>0.7310125356966697</v>
+        <v>2.508942604064941</v>
       </c>
       <c r="C1">
-        <v>1.001292997924882</v>
+        <v>4.768408298492432</v>
       </c>
       <c r="D1">
-        <v>2.601118521160315</v>
+        <v>4.604844570159912</v>
       </c>
       <c r="E1">
-        <v>3.737252287985054</v>
+        <v>1.262414455413818</v>
       </c>
     </row>
   </sheetData>
